--- a/artfynd/A 57076-2020.xlsx
+++ b/artfynd/A 57076-2020.xlsx
@@ -1298,7 +1298,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111638342</v>
+        <v>111638343</v>
       </c>
       <c r="B7" t="n">
         <v>95723</v>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>595216.0606904621</v>
+        <v>595350.2486161557</v>
       </c>
       <c r="R7" t="n">
-        <v>7035641.576371719</v>
+        <v>7035563.171673566</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Långt ner i branten, nedanför lövskogen.</t>
+          <t>I örtrik brant.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1536,7 +1536,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111638343</v>
+        <v>111638342</v>
       </c>
       <c r="B9" t="n">
         <v>95723</v>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1580,10 +1580,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>595350.2486161557</v>
+        <v>595216.0606904621</v>
       </c>
       <c r="R9" t="n">
-        <v>7035563.171673566</v>
+        <v>7035641.576371719</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>I örtrik brant.</t>
+          <t>Långt ner i branten, nedanför lövskogen.</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 57076-2020.xlsx
+++ b/artfynd/A 57076-2020.xlsx
@@ -1298,10 +1298,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111638343</v>
+        <v>111638335</v>
       </c>
       <c r="B7" t="n">
-        <v>95723</v>
+        <v>95532</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1314,38 +1314,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220250</v>
+        <v>221945</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Matteuccia struthiopteris</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Tod.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Söder om Näsåker, nära älven., Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>595350.2486161557</v>
+        <v>595259.9532100452</v>
       </c>
       <c r="R7" t="n">
-        <v>7035563.171673566</v>
+        <v>7035583.319231374</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1392,7 +1388,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>I örtrik brant.</t>
+          <t>Stort bestånd.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1419,10 +1415,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111638335</v>
+        <v>111638343</v>
       </c>
       <c r="B8" t="n">
-        <v>95532</v>
+        <v>95723</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1435,34 +1431,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221945</v>
+        <v>220250</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Matteuccia struthiopteris</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(L.) Tod.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Söder om Näsåker, nära älven., Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>595259.9532100452</v>
+        <v>595350.2486161557</v>
       </c>
       <c r="R8" t="n">
-        <v>7035583.319231374</v>
+        <v>7035563.171673566</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Stort bestånd.</t>
+          <t>I örtrik brant.</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 57076-2020.xlsx
+++ b/artfynd/A 57076-2020.xlsx
@@ -1298,10 +1298,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111638335</v>
+        <v>111638342</v>
       </c>
       <c r="B7" t="n">
-        <v>95532</v>
+        <v>95723</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1314,34 +1314,38 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221945</v>
+        <v>220250</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Matteuccia struthiopteris</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(L.) Tod.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Söder om Näsåker, nära älven., Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>595259.9532100452</v>
+        <v>595216.0606904621</v>
       </c>
       <c r="R7" t="n">
-        <v>7035583.319231374</v>
+        <v>7035641.576371719</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1388,7 +1392,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Stort bestånd.</t>
+          <t>Långt ner i branten, nedanför lövskogen.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1415,10 +1419,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111638343</v>
+        <v>111638335</v>
       </c>
       <c r="B8" t="n">
-        <v>95723</v>
+        <v>95532</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1431,38 +1435,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220250</v>
+        <v>221945</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Matteuccia struthiopteris</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Tod.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Söder om Näsåker, nära älven., Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>595350.2486161557</v>
+        <v>595259.9532100452</v>
       </c>
       <c r="R8" t="n">
-        <v>7035563.171673566</v>
+        <v>7035583.319231374</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>I örtrik brant.</t>
+          <t>Stort bestånd.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1536,7 +1536,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111638342</v>
+        <v>111638343</v>
       </c>
       <c r="B9" t="n">
         <v>95723</v>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1580,10 +1580,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>595216.0606904621</v>
+        <v>595350.2486161557</v>
       </c>
       <c r="R9" t="n">
-        <v>7035641.576371719</v>
+        <v>7035563.171673566</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Långt ner i branten, nedanför lövskogen.</t>
+          <t>I örtrik brant.</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 57076-2020.xlsx
+++ b/artfynd/A 57076-2020.xlsx
@@ -1298,10 +1298,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111638342</v>
+        <v>111638335</v>
       </c>
       <c r="B7" t="n">
-        <v>95723</v>
+        <v>95532</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1314,38 +1314,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220250</v>
+        <v>221945</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Matteuccia struthiopteris</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Tod.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Söder om Näsåker, nära älven., Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>595216.0606904621</v>
+        <v>595259.9532100452</v>
       </c>
       <c r="R7" t="n">
-        <v>7035641.576371719</v>
+        <v>7035583.319231374</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1392,7 +1388,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Långt ner i branten, nedanför lövskogen.</t>
+          <t>Stort bestånd.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1419,10 +1415,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111638335</v>
+        <v>111638342</v>
       </c>
       <c r="B8" t="n">
-        <v>95532</v>
+        <v>95723</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1435,34 +1431,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221945</v>
+        <v>220250</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Matteuccia struthiopteris</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(L.) Tod.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Söder om Näsåker, nära älven., Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>595259.9532100452</v>
+        <v>595216.0606904621</v>
       </c>
       <c r="R8" t="n">
-        <v>7035583.319231374</v>
+        <v>7035641.576371719</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Stort bestånd.</t>
+          <t>Långt ner i branten, nedanför lövskogen.</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 57076-2020.xlsx
+++ b/artfynd/A 57076-2020.xlsx
@@ -1298,10 +1298,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111638335</v>
+        <v>111638342</v>
       </c>
       <c r="B7" t="n">
-        <v>95532</v>
+        <v>95723</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1314,34 +1314,38 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221945</v>
+        <v>220250</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Matteuccia struthiopteris</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(L.) Tod.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Söder om Näsåker, nära älven., Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>595259.9532100452</v>
+        <v>595216.0606904621</v>
       </c>
       <c r="R7" t="n">
-        <v>7035583.319231374</v>
+        <v>7035641.576371719</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1388,7 +1392,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Stort bestånd.</t>
+          <t>Långt ner i branten, nedanför lövskogen.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1415,10 +1419,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111638342</v>
+        <v>111638335</v>
       </c>
       <c r="B8" t="n">
-        <v>95723</v>
+        <v>95532</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1431,38 +1435,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220250</v>
+        <v>221945</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Matteuccia struthiopteris</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Tod.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Söder om Näsåker, nära älven., Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>595216.0606904621</v>
+        <v>595259.9532100452</v>
       </c>
       <c r="R8" t="n">
-        <v>7035641.576371719</v>
+        <v>7035583.319231374</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Långt ner i branten, nedanför lövskogen.</t>
+          <t>Stort bestånd.</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 57076-2020.xlsx
+++ b/artfynd/A 57076-2020.xlsx
@@ -1298,7 +1298,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111638342</v>
+        <v>111638343</v>
       </c>
       <c r="B7" t="n">
         <v>95723</v>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>595216.0606904621</v>
+        <v>595350.2486161557</v>
       </c>
       <c r="R7" t="n">
-        <v>7035641.576371719</v>
+        <v>7035563.171673566</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Långt ner i branten, nedanför lövskogen.</t>
+          <t>I örtrik brant.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1419,10 +1419,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111638335</v>
+        <v>111638342</v>
       </c>
       <c r="B8" t="n">
-        <v>95532</v>
+        <v>95723</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1435,34 +1435,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221945</v>
+        <v>220250</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Matteuccia struthiopteris</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(L.) Tod.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Söder om Näsåker, nära älven., Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>595259.9532100452</v>
+        <v>595216.0606904621</v>
       </c>
       <c r="R8" t="n">
-        <v>7035583.319231374</v>
+        <v>7035641.576371719</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1509,7 +1513,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Stort bestånd.</t>
+          <t>Långt ner i branten, nedanför lövskogen.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1536,10 +1540,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111638343</v>
+        <v>111638335</v>
       </c>
       <c r="B9" t="n">
-        <v>95723</v>
+        <v>95532</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1552,38 +1556,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220250</v>
+        <v>221945</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Matteuccia struthiopteris</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Tod.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Söder om Näsåker, nära älven., Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>595350.2486161557</v>
+        <v>595259.9532100452</v>
       </c>
       <c r="R9" t="n">
-        <v>7035563.171673566</v>
+        <v>7035583.319231374</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>I örtrik brant.</t>
+          <t>Stort bestånd.</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 57076-2020.xlsx
+++ b/artfynd/A 57076-2020.xlsx
@@ -1298,10 +1298,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111638343</v>
+        <v>111638335</v>
       </c>
       <c r="B7" t="n">
-        <v>95723</v>
+        <v>95532</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1314,38 +1314,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220250</v>
+        <v>221945</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Matteuccia struthiopteris</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Tod.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Söder om Näsåker, nära älven., Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>595350.2486161557</v>
+        <v>595260</v>
       </c>
       <c r="R7" t="n">
-        <v>7035563.171673566</v>
+        <v>7035583</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1375,24 +1371,14 @@
           <t>2022-06-13</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2022-06-13</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>I örtrik brant.</t>
+          <t>Stort bestånd.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1419,7 +1405,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111638342</v>
+        <v>111638343</v>
       </c>
       <c r="B8" t="n">
         <v>95723</v>
@@ -1454,7 +1440,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1463,10 +1449,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>595216.0606904621</v>
+        <v>595350</v>
       </c>
       <c r="R8" t="n">
-        <v>7035641.576371719</v>
+        <v>7035563</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1496,24 +1482,14 @@
           <t>2022-06-13</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2022-06-13</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Långt ner i branten, nedanför lövskogen.</t>
+          <t>I örtrik brant.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1540,10 +1516,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111638335</v>
+        <v>111638342</v>
       </c>
       <c r="B9" t="n">
-        <v>95532</v>
+        <v>95723</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1556,34 +1532,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221945</v>
+        <v>220250</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Matteuccia struthiopteris</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(L.) Tod.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Söder om Näsåker, nära älven., Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>595259.9532100452</v>
+        <v>595216</v>
       </c>
       <c r="R9" t="n">
-        <v>7035583.319231374</v>
+        <v>7035642</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1613,24 +1593,14 @@
           <t>2022-06-13</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2022-06-13</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Stort bestånd.</t>
+          <t>Långt ner i branten, nedanför lövskogen.</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 57076-2020.xlsx
+++ b/artfynd/A 57076-2020.xlsx
@@ -1065,10 +1065,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110211841</v>
+        <v>110212368</v>
       </c>
       <c r="B5" t="n">
-        <v>89673</v>
+        <v>56521</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1081,34 +1081,38 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>658</v>
+        <v>103035</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Kråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Corvus corone</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Söder om Näsåker, nära älven., Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>595249.2583857939</v>
+        <v>595168.828604917</v>
       </c>
       <c r="R5" t="n">
-        <v>7035565.981385023</v>
+        <v>7035525.963256468</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1161,11 +1165,6 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Murken granlåga med lite bark kvar.</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1182,10 +1181,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110212368</v>
+        <v>110211841</v>
       </c>
       <c r="B6" t="n">
-        <v>56521</v>
+        <v>89673</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1198,38 +1197,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103035</v>
+        <v>658</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kråka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Corvus corone</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Söder om Näsåker, nära älven., Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>595168.828604917</v>
+        <v>595249.2583857939</v>
       </c>
       <c r="R6" t="n">
-        <v>7035525.963256468</v>
+        <v>7035565.981385023</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1282,6 +1277,11 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Murken granlåga med lite bark kvar.</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">

--- a/artfynd/A 57076-2020.xlsx
+++ b/artfynd/A 57076-2020.xlsx
@@ -1065,10 +1065,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110212368</v>
+        <v>110211841</v>
       </c>
       <c r="B5" t="n">
-        <v>56521</v>
+        <v>89673</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1081,38 +1081,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103035</v>
+        <v>658</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kråka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Corvus corone</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Söder om Näsåker, nära älven., Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>595168.828604917</v>
+        <v>595249.2583857939</v>
       </c>
       <c r="R5" t="n">
-        <v>7035525.963256468</v>
+        <v>7035565.981385023</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1165,6 +1161,11 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Murken granlåga med lite bark kvar.</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1181,10 +1182,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110211841</v>
+        <v>110212368</v>
       </c>
       <c r="B6" t="n">
-        <v>89673</v>
+        <v>56521</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1197,34 +1198,38 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>658</v>
+        <v>103035</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Kråka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Corvus corone</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Söder om Näsåker, nära älven., Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>595249.2583857939</v>
+        <v>595168.828604917</v>
       </c>
       <c r="R6" t="n">
-        <v>7035565.981385023</v>
+        <v>7035525.963256468</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1277,11 +1282,6 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Murken granlåga med lite bark kvar.</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
